--- a/nodes_source_analyses/households/households_lighting_led_electricity.converter.xlsx
+++ b/nodes_source_analyses/households/households_lighting_led_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="762"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -263,9 +271,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -349,16 +354,20 @@
   <si>
     <t>http://refman.et-model.com/publications/1909</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,11 +468,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -556,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -761,57 +765,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1051,7 +1004,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1103,7 +1056,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1160,14 +1113,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1178,8 +1131,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1189,14 +1141,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1207,31 +1159,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1475,80 +1406,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>812800</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1856,7 +1722,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2293,34 +2159,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="49" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="49"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="49" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="48" customFormat="1">
+    <row r="1" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="76"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="44" t="s">
         <v>11</v>
@@ -2329,7 +2195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="52" t="s">
         <v>57</v>
@@ -2338,7 +2204,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="54" t="s">
         <v>13</v>
@@ -2347,29 +2213,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="77" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="78"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="79" t="s">
         <v>60</v>
@@ -2378,33 +2244,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="79"/>
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="79"/>
       <c r="C13" s="82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="79"/>
       <c r="C14" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="79" t="s">
         <v>65</v>
@@ -2413,49 +2279,49 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="79"/>
       <c r="C17" s="84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="79"/>
       <c r="C18" s="85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
       <c r="B19" s="79"/>
       <c r="C19" s="86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="45"/>
       <c r="B20" s="87"/>
       <c r="C20" s="88" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="87"/>
       <c r="C22" s="90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="87"/>
       <c r="C23" s="91" t="s">
         <v>73</v>
@@ -2464,79 +2330,76 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="3" style="20" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="20" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="20" customWidth="1"/>
     <col min="9" max="9" width="41" style="20" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="20"/>
+    <col min="10" max="10" width="5.42578125" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="112"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="117"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2547,7 +2410,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:11" s="13" customFormat="1">
+    <row r="8" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
@@ -2568,7 +2431,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:11" s="13" customFormat="1">
+    <row r="9" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
@@ -2579,10 +2442,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:11" s="13" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="13" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="3"/>
@@ -2592,15 +2455,15 @@
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:11" s="13" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="13" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="93">
+        <v>76</v>
+      </c>
+      <c r="E11" s="92">
         <f>'Research data'!G7</f>
         <v>6.9999999999999999E-6</v>
       </c>
@@ -2614,7 +2477,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:11" s="13" customFormat="1">
+    <row r="12" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="15"/>
@@ -2625,10 +2488,10 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -2639,12 +2502,12 @@
       <c r="J13" s="24"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="94" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="30">
@@ -2662,15 +2525,15 @@
       <c r="J14" s="24"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="96">
         <v>0</v>
       </c>
       <c r="F15" s="18"/>
@@ -2684,10 +2547,10 @@
       <c r="J15" s="24"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -2696,12 +2559,12 @@
       <c r="J16" s="24"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23"/>
       <c r="C17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2710,7 +2573,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
       <c r="C18" s="43" t="s">
         <v>49</v>
@@ -2733,9 +2596,9 @@
       <c r="J18" s="24"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="97" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -2753,7 +2616,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
@@ -2766,47 +2629,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>812800</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2821,29 +2647,29 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="32" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="32" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="32" customWidth="1"/>
-    <col min="8" max="8" width="3.875" style="32" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="32" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="32" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="32" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="32" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="32" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="32" customWidth="1"/>
-    <col min="17" max="17" width="31.125" style="32" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="32"/>
+    <col min="1" max="2" width="3.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="32" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="32" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" style="32" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="16" thickBot="1"/>
-    <row r="3" spans="2:17">
+    <row r="2" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -2861,10 +2687,10 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
     </row>
-    <row r="4" spans="2:17" s="13" customFormat="1">
+    <row r="4" spans="2:17" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2895,7 +2721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -2913,25 +2739,25 @@
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="Q6" s="75"/>
     </row>
-    <row r="7" spans="2:17" ht="16" thickBot="1">
+    <row r="7" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="35"/>
       <c r="C7" s="40" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="99" t="s">
-        <v>78</v>
+      <c r="F7" s="98" t="s">
+        <v>77</v>
       </c>
       <c r="G7" s="74">
         <f>ROUND((G8/1000000),6)</f>
@@ -2955,15 +2781,15 @@
       </c>
       <c r="Q7" s="75"/>
     </row>
-    <row r="8" spans="2:17" ht="16" thickBot="1">
+    <row r="8" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35"/>
       <c r="C8" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="99" t="s">
-        <v>79</v>
+      <c r="F8" s="98" t="s">
+        <v>78</v>
       </c>
       <c r="G8" s="72">
         <f>ROUND(AVERAGE(I8,K8,M8,O8),0)</f>
@@ -2983,20 +2809,20 @@
       </c>
       <c r="Q8" s="75"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="35"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="O9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="O9" s="99"/>
       <c r="Q9" s="75"/>
     </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
+    <row r="10" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35"/>
       <c r="C10" s="17" t="s">
         <v>4</v>
@@ -3006,7 +2832,7 @@
       <c r="F10" s="17"/>
       <c r="Q10" s="75"/>
     </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="35"/>
       <c r="C11" s="38" t="s">
         <v>31</v>
@@ -3040,7 +2866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="35"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3048,25 +2874,25 @@
       <c r="F12" s="17"/>
       <c r="Q12" s="75"/>
     </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="17"/>
       <c r="Q13" s="75"/>
     </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35"/>
       <c r="C14" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="108" t="s">
-        <v>86</v>
+      <c r="F14" s="107" t="s">
+        <v>85</v>
       </c>
       <c r="G14" s="73">
         <f>ROUND(AVERAGE(I14,K14,M14,O14),2)</f>
@@ -3092,14 +2918,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1">
+    <row r="15" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
       <c r="C15" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="98" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="72">
@@ -3122,11 +2948,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3141,22 +2962,22 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="57" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="57" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="64" customWidth="1"/>
-    <col min="9" max="9" width="33.75" style="64" customWidth="1"/>
-    <col min="10" max="10" width="59.875" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="57"/>
+    <col min="1" max="1" width="2.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="64" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="64" customWidth="1"/>
+    <col min="10" max="10" width="59.85546875" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -3167,7 +2988,7 @@
       <c r="I2" s="65"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="62"/>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -3180,15 +3001,15 @@
       <c r="I3" s="8"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="2:10" s="49" customFormat="1">
+    <row r="4" spans="2:10" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62"/>
       <c r="F4" s="66"/>
       <c r="G4" s="66"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="103"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="102"/>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
@@ -3198,23 +3019,23 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="104" t="s">
+      <c r="G5" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="104" t="s">
-        <v>87</v>
+      <c r="I5" s="103" t="s">
+        <v>86</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="62"/>
       <c r="C6" s="3"/>
       <c r="D6" s="49"/>
@@ -3225,7 +3046,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="62"/>
       <c r="C7" s="67"/>
       <c r="D7" s="57" t="s">
@@ -3237,18 +3058,18 @@
       <c r="F7" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="104" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="62"/>
       <c r="C8" s="68" t="s">
         <v>35</v>
@@ -3256,7 +3077,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="62"/>
       <c r="C9" s="69" t="s">
         <v>17</v>
@@ -3264,19 +3085,19 @@
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
       <c r="C10" s="49"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="62"/>
       <c r="C11" s="49"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="62"/>
       <c r="C12" s="68" t="s">
         <v>35</v>
@@ -3290,18 +3111,18 @@
       <c r="F12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="104" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="57"/>
       <c r="I12" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="105" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="62"/>
       <c r="C13" s="69" t="s">
         <v>17</v>
@@ -3309,19 +3130,19 @@
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="62"/>
       <c r="C14" s="67"/>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="62"/>
       <c r="C15" s="67"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
       <c r="C16" s="68" t="s">
         <v>35</v>
@@ -3335,18 +3156,18 @@
       <c r="F16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="104" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="105" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="62"/>
       <c r="C17" s="69" t="s">
         <v>17</v>
@@ -3354,19 +3175,19 @@
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="62"/>
       <c r="C18" s="67"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="62"/>
       <c r="C19" s="67"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="62"/>
       <c r="C20" s="68" t="s">
         <v>35</v>
@@ -3381,11 +3202,11 @@
         <v>45</v>
       </c>
       <c r="I20" s="57"/>
-      <c r="J20" s="106" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="J20" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="62"/>
       <c r="C21" s="69" t="s">
         <v>17</v>
@@ -3393,19 +3214,19 @@
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="62"/>
       <c r="C22" s="49"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
       <c r="C23" s="67"/>
       <c r="H23" s="57"/>
       <c r="I23" s="57"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="62"/>
       <c r="C24" s="70" t="s">
         <v>36</v>
@@ -3437,11 +3258,6 @@
   <ignoredErrors>
     <ignoredError sqref="F12:G12 F16:G16 F7:G7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3456,17 +3272,17 @@
       <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="57"/>
-    <col min="4" max="5" width="12.875" style="57" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="57"/>
+    <col min="1" max="1" width="3.85546875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="57"/>
+    <col min="4" max="5" width="12.85546875" style="57" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -3478,7 +3294,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="2:11" s="13" customFormat="1">
+    <row r="3" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -3494,7 +3310,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="2:11" s="13" customFormat="1">
+    <row r="4" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3506,7 +3322,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="62"/>
       <c r="C5" s="49" t="s">
         <v>41</v>
@@ -3520,7 +3336,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="63"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="62"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49" t="s">
@@ -3534,7 +3350,7 @@
       <c r="J6" s="49"/>
       <c r="K6" s="63"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="62"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -3546,7 +3362,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="63"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="62"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -3558,7 +3374,7 @@
       <c r="J8" s="49"/>
       <c r="K8" s="63"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="62"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -3570,7 +3386,7 @@
       <c r="J9" s="49"/>
       <c r="K9" s="63"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="62"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -3582,7 +3398,7 @@
       <c r="J10" s="49"/>
       <c r="K10" s="63"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="62"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -3594,7 +3410,7 @@
       <c r="J11" s="49"/>
       <c r="K11" s="63"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="62"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -3606,7 +3422,7 @@
       <c r="J12" s="49"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="62"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49">
@@ -3620,7 +3436,7 @@
       <c r="J13" s="49"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="62"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -3632,7 +3448,7 @@
       <c r="J14" s="49"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="62"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
@@ -3644,7 +3460,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -3656,7 +3472,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="62"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -3668,7 +3484,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="62"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -3680,7 +3496,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="63"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="62"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -3692,7 +3508,7 @@
       <c r="J19" s="49"/>
       <c r="K19" s="63"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="62"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
@@ -3704,7 +3520,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="63"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="62"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49" t="s">
@@ -3718,7 +3534,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="63"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="62"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -3730,7 +3546,7 @@
       <c r="J22" s="49"/>
       <c r="K22" s="63"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="62"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -3742,7 +3558,7 @@
       <c r="J23" s="49"/>
       <c r="K23" s="63"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="62"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -3754,7 +3570,7 @@
       <c r="J24" s="49"/>
       <c r="K24" s="63"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="62"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -3766,7 +3582,7 @@
       <c r="J25" s="49"/>
       <c r="K25" s="63"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="62"/>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
@@ -3778,7 +3594,7 @@
       <c r="J26" s="49"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="62"/>
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
@@ -3790,7 +3606,7 @@
       <c r="J27" s="49"/>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="62"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49">
@@ -3804,7 +3620,7 @@
       <c r="J28" s="49"/>
       <c r="K28" s="63"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="62"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
@@ -3816,7 +3632,7 @@
       <c r="J29" s="49"/>
       <c r="K29" s="63"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="62"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
@@ -3828,7 +3644,7 @@
       <c r="J30" s="49"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="62"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -3840,7 +3656,7 @@
       <c r="J31" s="49"/>
       <c r="K31" s="63"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="62"/>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
@@ -3852,7 +3668,7 @@
       <c r="J32" s="49"/>
       <c r="K32" s="63"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="62"/>
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
@@ -3864,7 +3680,7 @@
       <c r="J33" s="49"/>
       <c r="K33" s="63"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="62"/>
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
@@ -3876,7 +3692,7 @@
       <c r="J34" s="49"/>
       <c r="K34" s="63"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="62"/>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
@@ -3888,7 +3704,7 @@
       <c r="J35" s="49"/>
       <c r="K35" s="63"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="62"/>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
@@ -3900,7 +3716,7 @@
       <c r="J36" s="49"/>
       <c r="K36" s="63"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="62"/>
       <c r="C37" s="49"/>
       <c r="D37" s="49" t="s">
@@ -3914,7 +3730,7 @@
       <c r="J37" s="49"/>
       <c r="K37" s="63"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="62"/>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
@@ -3926,7 +3742,7 @@
       <c r="J38" s="49"/>
       <c r="K38" s="63"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="62"/>
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
@@ -3938,7 +3754,7 @@
       <c r="J39" s="49"/>
       <c r="K39" s="63"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="62"/>
       <c r="C40" s="49"/>
       <c r="D40" s="49"/>
@@ -3950,7 +3766,7 @@
       <c r="J40" s="49"/>
       <c r="K40" s="63"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="62"/>
       <c r="C41" s="49"/>
       <c r="D41" s="49"/>
@@ -3962,7 +3778,7 @@
       <c r="J41" s="49"/>
       <c r="K41" s="63"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="62"/>
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
@@ -3974,7 +3790,7 @@
       <c r="J42" s="49"/>
       <c r="K42" s="63"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="62"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
@@ -3986,7 +3802,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="63"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="62"/>
       <c r="C44" s="49"/>
       <c r="D44" s="49">
@@ -4000,7 +3816,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="63"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="62"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
@@ -4012,7 +3828,7 @@
       <c r="J45" s="49"/>
       <c r="K45" s="63"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="62"/>
       <c r="C46" s="49"/>
       <c r="D46" s="49"/>
@@ -4024,7 +3840,7 @@
       <c r="J46" s="49"/>
       <c r="K46" s="63"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="62"/>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
@@ -4036,7 +3852,7 @@
       <c r="J47" s="49"/>
       <c r="K47" s="63"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="62"/>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
@@ -4048,7 +3864,7 @@
       <c r="J48" s="49"/>
       <c r="K48" s="63"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="62"/>
       <c r="C49" s="49"/>
       <c r="D49" s="49"/>
@@ -4060,7 +3876,7 @@
       <c r="J49" s="49"/>
       <c r="K49" s="63"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="62"/>
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
@@ -4072,7 +3888,7 @@
       <c r="J50" s="49"/>
       <c r="K50" s="63"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="62"/>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
@@ -4084,7 +3900,7 @@
       <c r="J51" s="49"/>
       <c r="K51" s="63"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="62"/>
       <c r="C52" s="49"/>
       <c r="D52" s="49"/>
@@ -4096,7 +3912,7 @@
       <c r="J52" s="49"/>
       <c r="K52" s="63"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="62"/>
       <c r="C53" s="49"/>
       <c r="D53" s="49"/>
@@ -4108,7 +3924,7 @@
       <c r="J53" s="49"/>
       <c r="K53" s="63"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="62"/>
       <c r="C54" s="49" t="s">
         <v>40</v>
@@ -4122,7 +3938,7 @@
       <c r="J54" s="49"/>
       <c r="K54" s="63"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="62"/>
       <c r="C55" s="49"/>
       <c r="D55" s="49"/>
@@ -4134,7 +3950,7 @@
       <c r="J55" s="49"/>
       <c r="K55" s="63"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="62"/>
       <c r="C56" s="49"/>
       <c r="D56" s="49">
@@ -4148,7 +3964,7 @@
       <c r="J56" s="49"/>
       <c r="K56" s="63"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="62"/>
       <c r="C57" s="49"/>
       <c r="D57" s="49"/>
@@ -4160,7 +3976,7 @@
       <c r="J57" s="49"/>
       <c r="K57" s="63"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="62"/>
       <c r="C58" s="49"/>
       <c r="D58" s="49"/>
@@ -4172,7 +3988,7 @@
       <c r="J58" s="49"/>
       <c r="K58" s="63"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="62"/>
       <c r="C59" s="49"/>
       <c r="D59" s="49"/>
@@ -4184,7 +4000,7 @@
       <c r="J59" s="49"/>
       <c r="K59" s="63"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="62"/>
       <c r="C60" s="49"/>
       <c r="D60" s="49"/>
@@ -4196,7 +4012,7 @@
       <c r="J60" s="49"/>
       <c r="K60" s="63"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="62"/>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
@@ -4208,7 +4024,7 @@
       <c r="J61" s="49"/>
       <c r="K61" s="63"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="62"/>
       <c r="C62" s="49"/>
       <c r="D62" s="49"/>
@@ -4220,7 +4036,7 @@
       <c r="J62" s="49"/>
       <c r="K62" s="63"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="62"/>
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
@@ -4232,7 +4048,7 @@
       <c r="J63" s="49"/>
       <c r="K63" s="63"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="62"/>
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
@@ -4244,7 +4060,7 @@
       <c r="J64" s="49"/>
       <c r="K64" s="63"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="62"/>
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
@@ -4256,7 +4072,7 @@
       <c r="J65" s="49"/>
       <c r="K65" s="63"/>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="62"/>
       <c r="C66" s="49"/>
       <c r="D66" s="49"/>
@@ -4268,14 +4084,14 @@
       <c r="J66" s="49"/>
       <c r="K66" s="63"/>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="62"/>
       <c r="C67" s="49"/>
       <c r="D67" s="49">
         <v>20000</v>
       </c>
-      <c r="E67" s="107" t="s">
-        <v>84</v>
+      <c r="E67" s="106" t="s">
+        <v>83</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
@@ -4284,7 +4100,7 @@
       <c r="J67" s="49"/>
       <c r="K67" s="63"/>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="62"/>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
@@ -4296,11 +4112,11 @@
       <c r="J68" s="49"/>
       <c r="K68" s="63"/>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="62"/>
       <c r="C69" s="49"/>
       <c r="D69" s="49"/>
-      <c r="E69" s="107"/>
+      <c r="E69" s="106"/>
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
       <c r="H69" s="49"/>
@@ -4308,7 +4124,7 @@
       <c r="J69" s="49"/>
       <c r="K69" s="63"/>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="62"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
@@ -4320,7 +4136,7 @@
       <c r="J70" s="49"/>
       <c r="K70" s="63"/>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="62"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
@@ -4332,7 +4148,7 @@
       <c r="J71" s="49"/>
       <c r="K71" s="63"/>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="62"/>
       <c r="C72" s="49"/>
       <c r="D72" s="49"/>
@@ -4344,9 +4160,9 @@
       <c r="J72" s="49"/>
       <c r="K72" s="63"/>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="62"/>
-      <c r="C73" s="107" t="s">
+      <c r="C73" s="106" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="49"/>
@@ -4358,7 +4174,7 @@
       <c r="J73" s="49"/>
       <c r="K73" s="63"/>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="62"/>
       <c r="C74" s="49"/>
       <c r="D74" s="49"/>
@@ -4370,7 +4186,7 @@
       <c r="J74" s="49"/>
       <c r="K74" s="63"/>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="62"/>
       <c r="C75" s="49"/>
       <c r="D75" s="49"/>
@@ -4382,7 +4198,7 @@
       <c r="J75" s="49"/>
       <c r="K75" s="63"/>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="62"/>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
@@ -4394,7 +4210,7 @@
       <c r="J76" s="49"/>
       <c r="K76" s="63"/>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="62"/>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
@@ -4406,14 +4222,14 @@
       <c r="J77" s="49"/>
       <c r="K77" s="63"/>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="62"/>
       <c r="C78" s="49"/>
       <c r="D78" s="49">
         <v>25000</v>
       </c>
-      <c r="E78" s="107" t="s">
-        <v>84</v>
+      <c r="E78" s="106" t="s">
+        <v>83</v>
       </c>
       <c r="F78" s="49"/>
       <c r="G78" s="49"/>
@@ -4422,7 +4238,7 @@
       <c r="J78" s="49"/>
       <c r="K78" s="63"/>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="62"/>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -4434,7 +4250,7 @@
       <c r="J79" s="49"/>
       <c r="K79" s="63"/>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="62"/>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
@@ -4446,9 +4262,9 @@
       <c r="J80" s="49"/>
       <c r="K80" s="63"/>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="62"/>
-      <c r="C81" s="107" t="s">
+      <c r="C81" s="106" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="49"/>
@@ -4460,7 +4276,7 @@
       <c r="J81" s="49"/>
       <c r="K81" s="63"/>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="62"/>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
@@ -4472,7 +4288,7 @@
       <c r="J82" s="49"/>
       <c r="K82" s="63"/>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="62"/>
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
@@ -4484,7 +4300,7 @@
       <c r="J83" s="49"/>
       <c r="K83" s="63"/>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="62"/>
       <c r="C84" s="49"/>
       <c r="D84" s="49"/>
@@ -4496,7 +4312,7 @@
       <c r="J84" s="49"/>
       <c r="K84" s="63"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="62"/>
       <c r="C85" s="49"/>
       <c r="D85" s="49"/>
@@ -4508,7 +4324,7 @@
       <c r="J85" s="49"/>
       <c r="K85" s="63"/>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="62"/>
       <c r="C86" s="49"/>
       <c r="D86" s="49"/>
@@ -4520,7 +4336,7 @@
       <c r="J86" s="49"/>
       <c r="K86" s="63"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="62"/>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
@@ -4532,7 +4348,7 @@
       <c r="J87" s="49"/>
       <c r="K87" s="63"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="62"/>
       <c r="C88" s="49"/>
       <c r="D88" s="49"/>
@@ -4544,7 +4360,7 @@
       <c r="J88" s="49"/>
       <c r="K88" s="63"/>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="62"/>
       <c r="C89" s="49"/>
       <c r="D89" s="49"/>
@@ -4556,7 +4372,7 @@
       <c r="J89" s="49"/>
       <c r="K89" s="63"/>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="62"/>
       <c r="C90" s="49"/>
       <c r="D90" s="49"/>
@@ -4568,14 +4384,14 @@
       <c r="J90" s="49"/>
       <c r="K90" s="63"/>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="62"/>
       <c r="C91" s="49"/>
       <c r="D91" s="49">
         <v>25000</v>
       </c>
-      <c r="E91" s="107" t="s">
-        <v>84</v>
+      <c r="E91" s="106" t="s">
+        <v>83</v>
       </c>
       <c r="F91" s="49"/>
       <c r="G91" s="49"/>
@@ -4584,7 +4400,7 @@
       <c r="J91" s="49"/>
       <c r="K91" s="63"/>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="62"/>
       <c r="C92" s="49"/>
       <c r="D92" s="49"/>
@@ -4596,7 +4412,7 @@
       <c r="J92" s="49"/>
       <c r="K92" s="63"/>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="62"/>
       <c r="C93" s="49"/>
       <c r="D93" s="49"/>
@@ -4608,7 +4424,7 @@
       <c r="J93" s="49"/>
       <c r="K93" s="63"/>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="62"/>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
@@ -4620,7 +4436,7 @@
       <c r="J94" s="49"/>
       <c r="K94" s="63"/>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="62"/>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
@@ -4632,7 +4448,7 @@
       <c r="J95" s="49"/>
       <c r="K95" s="63"/>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="62"/>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
@@ -4644,9 +4460,9 @@
       <c r="J96" s="49"/>
       <c r="K96" s="63"/>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="62"/>
-      <c r="C97" s="107" t="s">
+      <c r="C97" s="106" t="s">
         <v>55</v>
       </c>
       <c r="D97" s="49"/>
@@ -4658,10 +4474,10 @@
       <c r="J97" s="49"/>
       <c r="K97" s="63"/>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="62"/>
-      <c r="C98" s="107" t="s">
-        <v>85</v>
+      <c r="C98" s="106" t="s">
+        <v>84</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
@@ -4672,7 +4488,7 @@
       <c r="J98" s="49"/>
       <c r="K98" s="63"/>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="62"/>
       <c r="C99" s="49"/>
       <c r="D99" s="49"/>
@@ -4684,7 +4500,7 @@
       <c r="J99" s="49"/>
       <c r="K99" s="63"/>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="62"/>
       <c r="C100" s="49"/>
       <c r="D100" s="49"/>
@@ -4696,7 +4512,7 @@
       <c r="J100" s="49"/>
       <c r="K100" s="63"/>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="62"/>
       <c r="C101" s="49"/>
       <c r="D101" s="49"/>
@@ -4708,7 +4524,7 @@
       <c r="J101" s="49"/>
       <c r="K101" s="63"/>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="62"/>
       <c r="C102" s="49"/>
       <c r="D102" s="49"/>
@@ -4720,7 +4536,7 @@
       <c r="J102" s="49"/>
       <c r="K102" s="63"/>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="62"/>
       <c r="C103" s="49"/>
       <c r="D103" s="49"/>
@@ -4732,14 +4548,14 @@
       <c r="J103" s="49"/>
       <c r="K103" s="63"/>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="62"/>
       <c r="C104" s="49"/>
       <c r="D104" s="49">
         <v>20000</v>
       </c>
-      <c r="E104" s="107" t="s">
-        <v>84</v>
+      <c r="E104" s="106" t="s">
+        <v>83</v>
       </c>
       <c r="F104" s="49"/>
       <c r="G104" s="49"/>
@@ -4748,7 +4564,7 @@
       <c r="J104" s="49"/>
       <c r="K104" s="63"/>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="62"/>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
@@ -4760,7 +4576,7 @@
       <c r="J105" s="49"/>
       <c r="K105" s="63"/>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" s="62"/>
       <c r="C106" s="49"/>
       <c r="D106" s="49"/>
@@ -4775,10 +4591,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>